--- a/public/contactUs.xlsx
+++ b/public/contactUs.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
-    <sheet name="Employees" sheetId="1" r:id="rId1"/>
+    <sheet name="Staff" sheetId="1" r:id="rId1"/>
     <sheet name="Store Fronts" sheetId="6" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>Name</t>
   </si>
@@ -66,6 +66,12 @@
   </si>
   <si>
     <t>GA</t>
+  </si>
+  <si>
+    <t>Gunner</t>
+  </si>
+  <si>
+    <t>Dog</t>
   </si>
 </sst>
 </file>
@@ -418,7 +424,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A4" sqref="A4:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -466,7 +472,12 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C4" s="1"/>
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>

--- a/public/contactUs.xlsx
+++ b/public/contactUs.xlsx
@@ -424,7 +424,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B4"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
